--- a/Souq/src/price/Souq/excel_45_casacos,_blazers_e_jaquetas.xlsx
+++ b/Souq/src/price/Souq/excel_45_casacos,_blazers_e_jaquetas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +470,477 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>CASACOS, BLAZERS E JAQUETAS</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-cima/casacos.html</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-cima/casacos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CASACO BOMBAIM</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/casaco-bombaim-04-26-17-045-054.html</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>798,00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CASACOS, BLAZERS E JAQUETAS</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-cima/casacos.html</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-cima/casacos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CASACO DELHI CURTO</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/casaco-delhi-curto-04-26-17-043-054.html</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>798,00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CASACOS, BLAZERS E JAQUETAS</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-cima/casacos.html</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-cima/casacos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>CASACO DELHI MIDI</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/casaco-delhi-midi-04-26-17-044-054.html</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>998,00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CASACOS, BLAZERS E JAQUETAS</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-cima/casacos.html</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-cima/casacos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>JAQUETA SUCENA</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/jaqueta-sucena-04-26-55-014-051.html</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>798,00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CASACOS, BLAZERS E JAQUETAS</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-cima/casacos.html</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-cima/casacos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>JAQUETA TERSA</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/jaqueta-tersa-04-26-55-013-024.html</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>998,00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>CASACOS, BLAZERS E JAQUETAS</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-cima/casacos.html</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-cima/casacos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>BLAZER CINDY</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blazer-cindy-04-26-54-020-053.html</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>998,00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>CASACOS, BLAZERS E JAQUETAS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-cima/casacos.html</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-cima/casacos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>BLAZER LISA</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/casaco-london-04-26-54-017-035.html</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>898,00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>CASACOS, BLAZERS E JAQUETAS</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-cima/casacos.html</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-cima/casacos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>BLAZER ROSALA</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blazer-rosala-04-26-54-018-008.html</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>CASACOS, BLAZERS E JAQUETAS</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-cima/casacos.html</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-cima/casacos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>BLAZER ZAIDA</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blazer-zaida-04-26-54-019-035.html</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CASACOS, BLAZERS E JAQUETAS</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-cima/casacos.html</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-cima/casacos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>PARKA ANGELA</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/parka-angela-04-26-55-016-055.html</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>CASACOS, BLAZERS E JAQUETAS</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-cima/casacos.html</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-cima/casacos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>JAQUETA REESE</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/jaqueta-reese-04-26-55-017-035.html</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>CASACOS, BLAZERS E JAQUETAS</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-cima/casacos.html</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-cima/casacos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>JAQUETA REESE</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/jaqueta-reese-04-26-55-017-006.html</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>CASACOS, BLAZERS E JAQUETAS</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-cima/casacos.html</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-cima/casacos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>CASACO VIVIAN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/casaco-vivian-04-26-17-040-001.html</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>CASACOS, BLAZERS E JAQUETAS</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-cima/casacos.html</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-cima/casacos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>JAQUETA GAMORA</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/jaqueta-gamora-04-26-55-015-030.html</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>898,00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>CASACOS, BLAZERS E JAQUETAS</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-cima/casacos.html</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-cima/casacos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>JAQUETA MABI</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/jaqueta-mabi-04-26-55-011-030.html</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>998,00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
